--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>300.87689</v>
-      </c>
-      <c r="C2" t="n">
-        <v>796.55779</v>
-      </c>
-      <c r="D2" t="n">
-        <v>70.33419000000001</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.19723</v>
-      </c>
-      <c r="F2" t="n">
-        <v>8.702959999999999</v>
-      </c>
-      <c r="G2" t="n">
-        <v>552.18643</v>
-      </c>
-      <c r="H2" t="n">
-        <v>60.19356</v>
-      </c>
-      <c r="I2" t="n">
-        <v>277.8323</v>
-      </c>
-      <c r="J2" t="n">
-        <v>47.74824</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8396.593919999999</v>
-      </c>
-      <c r="L2" t="n">
-        <v>49.96714</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.26241</v>
-      </c>
-      <c r="N2" t="n">
-        <v>14.34569</v>
-      </c>
-      <c r="O2" t="n">
-        <v>512.46521</v>
-      </c>
-      <c r="P2" t="n">
-        <v>155.6908</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>25.44187</v>
-      </c>
-      <c r="R2" t="n">
-        <v>29.50187</v>
-      </c>
-      <c r="S2" t="n">
-        <v>20.41169</v>
-      </c>
-      <c r="T2" t="n">
-        <v>31.60664</v>
-      </c>
-      <c r="U2" t="n">
-        <v>91.42592</v>
-      </c>
-      <c r="V2" t="n">
-        <v>174.0946</v>
-      </c>
-      <c r="W2" t="n">
-        <v>38.80242</v>
-      </c>
-      <c r="X2" t="n">
-        <v>477.24526</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1183.88065</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>718.05759</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>358.63306</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>10.85175</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>251.90632</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>194.03766</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>224.63951</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>57.08943</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>117.05556</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>97.78895</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>346.85035</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>61.11761</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>70.79949999999999</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>150.85617</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>141.62693</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>576.26341</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>27.84622</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>266.96871</v>
-      </c>
-      <c r="C3" t="n">
-        <v>749.94211</v>
-      </c>
-      <c r="D3" t="n">
-        <v>74.09934</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.12954</v>
-      </c>
-      <c r="F3" t="n">
-        <v>7.99411</v>
-      </c>
-      <c r="G3" t="n">
-        <v>455.4456</v>
-      </c>
-      <c r="H3" t="n">
-        <v>46.06454</v>
-      </c>
-      <c r="I3" t="n">
-        <v>269.13205</v>
-      </c>
-      <c r="J3" t="n">
-        <v>47.10767</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7788.77108</v>
-      </c>
-      <c r="L3" t="n">
-        <v>49.52465</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5.36454</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.23737</v>
-      </c>
-      <c r="O3" t="n">
-        <v>487.34392</v>
-      </c>
-      <c r="P3" t="n">
-        <v>148.25752</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>24.08722</v>
-      </c>
-      <c r="R3" t="n">
-        <v>28.96519</v>
-      </c>
-      <c r="S3" t="n">
-        <v>17.29811</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27.50658</v>
-      </c>
-      <c r="U3" t="n">
-        <v>81.52639000000001</v>
-      </c>
-      <c r="V3" t="n">
-        <v>211.42277</v>
-      </c>
-      <c r="W3" t="n">
-        <v>35.81901</v>
-      </c>
-      <c r="X3" t="n">
-        <v>412.69564</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1247.83343</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>733.76782</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>350.4941</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>10.63216</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>170.44485</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>92.55098</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>196.25291</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>62.55741</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>110.14596</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>96.03097</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>302.10575</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>58.21124</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>66.44919</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>117.73437</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>131.61752</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>498.42656</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>26.30747</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>258.16298</v>
-      </c>
-      <c r="C4" t="n">
-        <v>694.99574</v>
-      </c>
-      <c r="D4" t="n">
-        <v>74.24414</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.1349</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.78128</v>
-      </c>
-      <c r="G4" t="n">
-        <v>396.32806</v>
-      </c>
-      <c r="H4" t="n">
-        <v>39.81728</v>
-      </c>
-      <c r="I4" t="n">
-        <v>271.76011</v>
-      </c>
-      <c r="J4" t="n">
-        <v>48.51689</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7273.96971</v>
-      </c>
-      <c r="L4" t="n">
-        <v>44.52311</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5.04609</v>
-      </c>
-      <c r="N4" t="n">
-        <v>10.68805</v>
-      </c>
-      <c r="O4" t="n">
-        <v>481.50646</v>
-      </c>
-      <c r="P4" t="n">
-        <v>130.8471</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>18.95687</v>
-      </c>
-      <c r="R4" t="n">
-        <v>19.6057</v>
-      </c>
-      <c r="S4" t="n">
-        <v>15.78671</v>
-      </c>
-      <c r="T4" t="n">
-        <v>26.20678</v>
-      </c>
-      <c r="U4" t="n">
-        <v>68.94306</v>
-      </c>
-      <c r="V4" t="n">
-        <v>161.13155</v>
-      </c>
-      <c r="W4" t="n">
-        <v>33.89769</v>
-      </c>
-      <c r="X4" t="n">
-        <v>371.64763</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1307.6793</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>646.15205</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>343.40697</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>8.53064</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>131.59984</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>71.08815</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>182.22388</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>65.26949999999999</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>113.90561</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>84.30945</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>298.09746</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>53.07648</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>65.33786000000001</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>101.35431</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>121.34165</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>423.00981</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>24.40409</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
